--- a/extracciones-gst.xlsx
+++ b/extracciones-gst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\desarrollos\extracciones-client-conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD89B1B-6BCE-4757-BAC2-7986C56CFDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE1664-A74B-4EA0-A40C-B28D4722FD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5772" yWindow="3168" windowWidth="17268" windowHeight="8880" xr2:uid="{6FD8CC60-CC68-4017-9FC0-5F3A34AB3EE4}"/>
   </bookViews>

--- a/extracciones-gst.xlsx
+++ b/extracciones-gst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\desarrollos\extracciones-client-conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE1664-A74B-4EA0-A40C-B28D4722FD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB26D7E7-FE30-4C0A-BE98-478419EF94C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5772" yWindow="3168" windowWidth="17268" windowHeight="8880" xr2:uid="{6FD8CC60-CC68-4017-9FC0-5F3A34AB3EE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FD8CC60-CC68-4017-9FC0-5F3A34AB3EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="extracciones (1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="6">
   <si>
     <t>machine</t>
   </si>
@@ -568,7 +568,18 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -878,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA78FCA-4E59-4E4F-8B54-288209DD267A}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,7 +916,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7000917</v>
+        <v>8001990</v>
       </c>
       <c r="B2">
         <v>1211</v>
@@ -922,7 +933,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7000918</v>
+        <v>8001991</v>
       </c>
       <c r="B3">
         <v>1211</v>
@@ -939,7 +950,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7000919</v>
+        <v>8001992</v>
       </c>
       <c r="B4">
         <v>1211</v>
@@ -956,7 +967,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>7000920</v>
+        <v>8001993</v>
       </c>
       <c r="B5">
         <v>1211</v>
@@ -973,7 +984,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7000921</v>
+        <v>8001994</v>
       </c>
       <c r="B6">
         <v>1211</v>
@@ -990,7 +1001,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7000922</v>
+        <v>8001995</v>
       </c>
       <c r="B7">
         <v>1211</v>
@@ -1007,7 +1018,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7000923</v>
+        <v>8001996</v>
       </c>
       <c r="B8">
         <v>1210</v>
@@ -1024,7 +1035,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7000924</v>
+        <v>8001997</v>
       </c>
       <c r="B9">
         <v>1210</v>
@@ -1041,7 +1052,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>7000925</v>
+        <v>8001998</v>
       </c>
       <c r="B10">
         <v>1210</v>
@@ -1058,7 +1069,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7000926</v>
+        <v>7000618</v>
       </c>
       <c r="B11">
         <v>1210</v>
@@ -1075,13 +1086,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7000927</v>
+        <v>7000620</v>
       </c>
       <c r="B12">
         <v>1210</v>
       </c>
       <c r="C12">
-        <v>191100</v>
+        <v>184800</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1092,13 +1103,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>7000928</v>
+        <v>7000621</v>
       </c>
       <c r="B13">
         <v>1210</v>
       </c>
       <c r="C13">
-        <v>227000</v>
+        <v>184800</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1109,13 +1120,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7000929</v>
+        <v>8001999</v>
       </c>
       <c r="B14">
         <v>1210</v>
       </c>
       <c r="C14">
-        <v>135000</v>
+        <v>184800</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -1126,13 +1137,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7000930</v>
+        <v>8002000</v>
       </c>
       <c r="B15">
         <v>1210</v>
       </c>
       <c r="C15">
-        <v>78000</v>
+        <v>184800</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -1143,13 +1154,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7000931</v>
+        <v>9000658</v>
       </c>
       <c r="B16">
         <v>1210</v>
       </c>
       <c r="C16">
-        <v>80500</v>
+        <v>184800</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -1160,13 +1171,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7000932</v>
+        <v>9000659</v>
       </c>
       <c r="B17">
         <v>1210</v>
       </c>
       <c r="C17">
-        <v>161800</v>
+        <v>184800</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -1177,13 +1188,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>7000933</v>
+        <v>9000660</v>
       </c>
       <c r="B18">
         <v>1210</v>
       </c>
       <c r="C18">
-        <v>75800</v>
+        <v>184800</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1194,13 +1205,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>7000934</v>
+        <v>9000661</v>
       </c>
       <c r="B19">
         <v>1210</v>
       </c>
       <c r="C19">
-        <v>173500</v>
+        <v>184800</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1211,16 +1222,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>522713</v>
+        <v>9000662</v>
       </c>
       <c r="B20">
-        <v>1114</v>
+        <v>1210</v>
       </c>
       <c r="C20">
-        <v>53000</v>
+        <v>184800</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -1228,16 +1239,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>522716</v>
+        <v>9000663</v>
       </c>
       <c r="B21">
-        <v>1114</v>
+        <v>1210</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>184800</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -1245,16 +1256,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>522719</v>
+        <v>9000664</v>
       </c>
       <c r="B22">
-        <v>1114</v>
+        <v>1210</v>
       </c>
       <c r="C22">
-        <v>112900</v>
+        <v>184800</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -1262,16 +1273,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>527122</v>
+        <v>8001766</v>
       </c>
       <c r="B23">
-        <v>1114</v>
+        <v>1210</v>
       </c>
       <c r="C23">
-        <v>267900</v>
+        <v>184800</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -1279,16 +1290,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>527832</v>
+        <v>8001767</v>
       </c>
       <c r="B24">
-        <v>1114</v>
+        <v>1210</v>
       </c>
       <c r="C24">
-        <v>185700</v>
+        <v>184800</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -1296,16 +1307,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>527833</v>
+        <v>8001768</v>
       </c>
       <c r="B25">
-        <v>1114</v>
+        <v>1210</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>184800</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -1313,16 +1324,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>528354</v>
+        <v>8001769</v>
       </c>
       <c r="B26">
-        <v>1116</v>
+        <v>1210</v>
       </c>
       <c r="C26">
-        <v>74500</v>
+        <v>184800</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -1330,16 +1341,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>528355</v>
+        <v>8001770</v>
       </c>
       <c r="B27">
-        <v>1116</v>
+        <v>1210</v>
       </c>
       <c r="C27">
-        <v>168300</v>
+        <v>184800</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -1347,16 +1358,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>528356</v>
+        <v>8001771</v>
       </c>
       <c r="B28">
-        <v>1116</v>
+        <v>1210</v>
       </c>
       <c r="C28">
-        <v>99500</v>
+        <v>184800</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -1364,16 +1375,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>528357</v>
+        <v>8001772</v>
       </c>
       <c r="B29">
-        <v>1116</v>
+        <v>1210</v>
       </c>
       <c r="C29">
-        <v>89000</v>
+        <v>184800</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -1381,16 +1392,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>528611</v>
+        <v>8001773</v>
       </c>
       <c r="B30">
-        <v>1116</v>
+        <v>1210</v>
       </c>
       <c r="C30">
-        <v>186500</v>
+        <v>184800</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -1398,16 +1409,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>528612</v>
+        <v>8001774</v>
       </c>
       <c r="B31">
-        <v>1116</v>
+        <v>1210</v>
       </c>
       <c r="C31">
-        <v>19600</v>
+        <v>184800</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -1415,16 +1426,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>605494</v>
+        <v>8001775</v>
       </c>
       <c r="B32">
-        <v>1116</v>
+        <v>1210</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>184800</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -1432,22 +1443,637 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>605495</v>
+        <v>7001103</v>
       </c>
       <c r="B33">
-        <v>1116</v>
+        <v>1210</v>
       </c>
       <c r="C33">
-        <v>12000</v>
+        <v>184800</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7001104</v>
+      </c>
+      <c r="B34">
+        <v>1210</v>
+      </c>
+      <c r="C34">
+        <v>184800</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7001105</v>
+      </c>
+      <c r="B35">
+        <v>1210</v>
+      </c>
+      <c r="C35">
+        <v>184800</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>7001106</v>
+      </c>
+      <c r="B36">
+        <v>1210</v>
+      </c>
+      <c r="C36">
+        <v>184800</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>8002431</v>
+      </c>
+      <c r="B37">
+        <v>1210</v>
+      </c>
+      <c r="C37">
+        <v>184800</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8001376</v>
+      </c>
+      <c r="B38">
+        <v>1210</v>
+      </c>
+      <c r="C38">
+        <v>184800</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>8001377</v>
+      </c>
+      <c r="B39">
+        <v>1210</v>
+      </c>
+      <c r="C39">
+        <v>184800</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>8001378</v>
+      </c>
+      <c r="B40">
+        <v>1210</v>
+      </c>
+      <c r="C40">
+        <v>184800</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>8001379</v>
+      </c>
+      <c r="B41">
+        <v>1210</v>
+      </c>
+      <c r="C41">
+        <v>184800</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8001380</v>
+      </c>
+      <c r="B42">
+        <v>1210</v>
+      </c>
+      <c r="C42">
+        <v>184800</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>8001381</v>
+      </c>
+      <c r="B43">
+        <v>1210</v>
+      </c>
+      <c r="C43">
+        <v>184800</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7000619</v>
+      </c>
+      <c r="B44">
+        <v>1210</v>
+      </c>
+      <c r="C44">
+        <v>184800</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>7000622</v>
+      </c>
+      <c r="B45">
+        <v>1210</v>
+      </c>
+      <c r="C45">
+        <v>184800</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>7000623</v>
+      </c>
+      <c r="B46">
+        <v>1210</v>
+      </c>
+      <c r="C46">
+        <v>184800</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>7000624</v>
+      </c>
+      <c r="B47">
+        <v>1210</v>
+      </c>
+      <c r="C47">
+        <v>184800</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>7000625</v>
+      </c>
+      <c r="B48">
+        <v>1210</v>
+      </c>
+      <c r="C48">
+        <v>184800</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>7000626</v>
+      </c>
+      <c r="B49">
+        <v>1210</v>
+      </c>
+      <c r="C49">
+        <v>184800</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>7000627</v>
+      </c>
+      <c r="B50">
+        <v>1210</v>
+      </c>
+      <c r="C50">
+        <v>184800</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>9000653</v>
+      </c>
+      <c r="B51">
+        <v>1210</v>
+      </c>
+      <c r="C51">
+        <v>184800</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>9000654</v>
+      </c>
+      <c r="B52">
+        <v>1210</v>
+      </c>
+      <c r="C52">
+        <v>184800</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9000656</v>
+      </c>
+      <c r="B53">
+        <v>1210</v>
+      </c>
+      <c r="C53">
+        <v>184800</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>8000937</v>
+      </c>
+      <c r="B54">
+        <v>1210</v>
+      </c>
+      <c r="C54">
+        <v>184800</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>8000322</v>
+      </c>
+      <c r="B55">
+        <v>1210</v>
+      </c>
+      <c r="C55">
+        <v>184800</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>8000325</v>
+      </c>
+      <c r="B56">
+        <v>1210</v>
+      </c>
+      <c r="C56">
+        <v>184800</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>8000938</v>
+      </c>
+      <c r="B57">
+        <v>1210</v>
+      </c>
+      <c r="C57">
+        <v>184800</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>9000655</v>
+      </c>
+      <c r="B58">
+        <v>1210</v>
+      </c>
+      <c r="C58">
+        <v>184800</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>8000324</v>
+      </c>
+      <c r="B59">
+        <v>1210</v>
+      </c>
+      <c r="C59">
+        <v>184800</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>8001382</v>
+      </c>
+      <c r="B60">
+        <v>1210</v>
+      </c>
+      <c r="C60">
+        <v>184800</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>9000657</v>
+      </c>
+      <c r="B61">
+        <v>1210</v>
+      </c>
+      <c r="C61">
+        <v>184800</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>8002422</v>
+      </c>
+      <c r="B62">
+        <v>1210</v>
+      </c>
+      <c r="C62">
+        <v>184800</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>8002423</v>
+      </c>
+      <c r="B63">
+        <v>1210</v>
+      </c>
+      <c r="C63">
+        <v>184800</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>8002424</v>
+      </c>
+      <c r="B64">
+        <v>1210</v>
+      </c>
+      <c r="C64">
+        <v>184800</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>8002425</v>
+      </c>
+      <c r="B65">
+        <v>1210</v>
+      </c>
+      <c r="C65">
+        <v>184800</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>8002426</v>
+      </c>
+      <c r="B66">
+        <v>1210</v>
+      </c>
+      <c r="C66">
+        <v>184800</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>8002439</v>
+      </c>
+      <c r="B67">
+        <v>1210</v>
+      </c>
+      <c r="C67">
+        <v>184800</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>8002440</v>
+      </c>
+      <c r="B68">
+        <v>1210</v>
+      </c>
+      <c r="C68">
+        <v>184800</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>8002441</v>
+      </c>
+      <c r="B69">
+        <v>1210</v>
+      </c>
+      <c r="C69">
+        <v>184800</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A11">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>